--- a/demo/materiais/FERRAMENTAS_FAZ_TUDO.xlsx
+++ b/demo/materiais/FERRAMENTAS_FAZ_TUDO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSÉROBERTO\Documents\BETO\ESPANHA\FAZ TUDO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSÉROBERTO\Documents\BETO\informatica\site\demo\materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t>CAT</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>Tripode liviano de 110 cm Altura ajustable Cuatro secciones Tornillo de 1/4 pulgadas</t>
+  </si>
+  <si>
+    <t>COMPRADA</t>
+  </si>
+  <si>
+    <t>COMPRADA ATÉ 17MM</t>
   </si>
 </sst>
 </file>
@@ -3291,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,11 +3396,9 @@
       <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="5">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3419,11 +3423,9 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3477,11 +3479,9 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,11 +3651,9 @@
       <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="5">
-        <v>9</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>32</v>
+      <c r="E35" s="5"/>
+      <c r="F35" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,11 +4090,9 @@
       <c r="C80" t="s">
         <v>95</v>
       </c>
-      <c r="E80" s="5">
-        <v>17</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>32</v>
+      <c r="E80" s="5"/>
+      <c r="F80" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,11 +4146,9 @@
       <c r="C86" t="s">
         <v>97</v>
       </c>
-      <c r="E86" s="5">
-        <v>59</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>32</v>
+      <c r="E86" s="5"/>
+      <c r="F86" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,11 +4319,9 @@
       <c r="C104" t="s">
         <v>34</v>
       </c>
-      <c r="E104" s="5">
-        <v>7</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>32</v>
+      <c r="E104" s="5"/>
+      <c r="F104" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4379,11 +4371,9 @@
       <c r="C110" t="s">
         <v>36</v>
       </c>
-      <c r="E110" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>32</v>
+      <c r="E110" s="5"/>
+      <c r="F110" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -5382,74 +5372,66 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F5" r:id="rId2"/>
-    <hyperlink ref="F11" r:id="rId3"/>
-    <hyperlink ref="F14" r:id="rId4"/>
-    <hyperlink ref="F17" r:id="rId5"/>
-    <hyperlink ref="F20" r:id="rId6"/>
-    <hyperlink ref="F23" r:id="rId7"/>
-    <hyperlink ref="F26" r:id="rId8"/>
-    <hyperlink ref="F29" r:id="rId9"/>
-    <hyperlink ref="F32" r:id="rId10"/>
-    <hyperlink ref="F38" r:id="rId11"/>
-    <hyperlink ref="F41" r:id="rId12"/>
-    <hyperlink ref="F44" r:id="rId13"/>
-    <hyperlink ref="F47" r:id="rId14"/>
-    <hyperlink ref="F50" r:id="rId15"/>
-    <hyperlink ref="F53" r:id="rId16"/>
-    <hyperlink ref="F56" r:id="rId17"/>
-    <hyperlink ref="F59" r:id="rId18"/>
-    <hyperlink ref="F89" r:id="rId19"/>
-    <hyperlink ref="F92" r:id="rId20"/>
-    <hyperlink ref="F101" r:id="rId21"/>
-    <hyperlink ref="F104" r:id="rId22"/>
-    <hyperlink ref="F107" r:id="rId23"/>
-    <hyperlink ref="F110" r:id="rId24"/>
-    <hyperlink ref="F113" r:id="rId25"/>
-    <hyperlink ref="F116" r:id="rId26"/>
-    <hyperlink ref="F119" r:id="rId27"/>
-    <hyperlink ref="F122" r:id="rId28"/>
-    <hyperlink ref="F125" r:id="rId29"/>
-    <hyperlink ref="F128" r:id="rId30"/>
-    <hyperlink ref="F131" r:id="rId31"/>
-    <hyperlink ref="F134" r:id="rId32"/>
-    <hyperlink ref="F137" r:id="rId33"/>
-    <hyperlink ref="F140" r:id="rId34"/>
-    <hyperlink ref="F143" r:id="rId35"/>
-    <hyperlink ref="F146" r:id="rId36"/>
-    <hyperlink ref="F149" r:id="rId37"/>
-    <hyperlink ref="F152" r:id="rId38"/>
-    <hyperlink ref="F155" r:id="rId39"/>
-    <hyperlink ref="F158" r:id="rId40"/>
-    <hyperlink ref="F161" r:id="rId41"/>
-    <hyperlink ref="F164" r:id="rId42"/>
-    <hyperlink ref="F167" r:id="rId43"/>
-    <hyperlink ref="F8" r:id="rId44"/>
-    <hyperlink ref="F173" r:id="rId45"/>
-    <hyperlink ref="F176" r:id="rId46"/>
-    <hyperlink ref="F62" r:id="rId47"/>
-    <hyperlink ref="F35" r:id="rId48"/>
-    <hyperlink ref="F179" r:id="rId49"/>
-    <hyperlink ref="F182" r:id="rId50"/>
-    <hyperlink ref="F185" r:id="rId51"/>
-    <hyperlink ref="F188" r:id="rId52"/>
-    <hyperlink ref="F191" r:id="rId53"/>
-    <hyperlink ref="F65" r:id="rId54"/>
-    <hyperlink ref="F194" r:id="rId55" location="reviews-container"/>
-    <hyperlink ref="F68" r:id="rId56"/>
-    <hyperlink ref="F71" r:id="rId57"/>
-    <hyperlink ref="F74" r:id="rId58" location="reviews-container"/>
-    <hyperlink ref="F77" r:id="rId59"/>
-    <hyperlink ref="F80" r:id="rId60"/>
-    <hyperlink ref="F83" r:id="rId61"/>
-    <hyperlink ref="F86" r:id="rId62"/>
-    <hyperlink ref="F170" r:id="rId63"/>
-    <hyperlink ref="F171" r:id="rId64"/>
-    <hyperlink ref="F95" r:id="rId65"/>
-    <hyperlink ref="F98" r:id="rId66"/>
+    <hyperlink ref="F14" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
+    <hyperlink ref="F23" r:id="rId5"/>
+    <hyperlink ref="F26" r:id="rId6"/>
+    <hyperlink ref="F29" r:id="rId7"/>
+    <hyperlink ref="F32" r:id="rId8"/>
+    <hyperlink ref="F38" r:id="rId9"/>
+    <hyperlink ref="F41" r:id="rId10"/>
+    <hyperlink ref="F44" r:id="rId11"/>
+    <hyperlink ref="F47" r:id="rId12"/>
+    <hyperlink ref="F50" r:id="rId13"/>
+    <hyperlink ref="F53" r:id="rId14"/>
+    <hyperlink ref="F56" r:id="rId15"/>
+    <hyperlink ref="F59" r:id="rId16"/>
+    <hyperlink ref="F89" r:id="rId17"/>
+    <hyperlink ref="F92" r:id="rId18"/>
+    <hyperlink ref="F107" r:id="rId19"/>
+    <hyperlink ref="F113" r:id="rId20"/>
+    <hyperlink ref="F116" r:id="rId21"/>
+    <hyperlink ref="F119" r:id="rId22"/>
+    <hyperlink ref="F122" r:id="rId23"/>
+    <hyperlink ref="F125" r:id="rId24"/>
+    <hyperlink ref="F128" r:id="rId25"/>
+    <hyperlink ref="F131" r:id="rId26"/>
+    <hyperlink ref="F134" r:id="rId27"/>
+    <hyperlink ref="F137" r:id="rId28"/>
+    <hyperlink ref="F140" r:id="rId29"/>
+    <hyperlink ref="F143" r:id="rId30"/>
+    <hyperlink ref="F146" r:id="rId31"/>
+    <hyperlink ref="F149" r:id="rId32"/>
+    <hyperlink ref="F152" r:id="rId33"/>
+    <hyperlink ref="F155" r:id="rId34"/>
+    <hyperlink ref="F158" r:id="rId35"/>
+    <hyperlink ref="F161" r:id="rId36"/>
+    <hyperlink ref="F164" r:id="rId37"/>
+    <hyperlink ref="F167" r:id="rId38"/>
+    <hyperlink ref="F173" r:id="rId39"/>
+    <hyperlink ref="F176" r:id="rId40"/>
+    <hyperlink ref="F62" r:id="rId41"/>
+    <hyperlink ref="F179" r:id="rId42"/>
+    <hyperlink ref="F182" r:id="rId43"/>
+    <hyperlink ref="F185" r:id="rId44"/>
+    <hyperlink ref="F188" r:id="rId45"/>
+    <hyperlink ref="F191" r:id="rId46"/>
+    <hyperlink ref="F65" r:id="rId47"/>
+    <hyperlink ref="F194" r:id="rId48" location="reviews-container"/>
+    <hyperlink ref="F68" r:id="rId49"/>
+    <hyperlink ref="F71" r:id="rId50"/>
+    <hyperlink ref="F74" r:id="rId51" location="reviews-container"/>
+    <hyperlink ref="F77" r:id="rId52"/>
+    <hyperlink ref="F83" r:id="rId53"/>
+    <hyperlink ref="F170" r:id="rId54"/>
+    <hyperlink ref="F171" r:id="rId55"/>
+    <hyperlink ref="F95" r:id="rId56"/>
+    <hyperlink ref="F98" r:id="rId57"/>
+    <hyperlink ref="F101" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
-  <drawing r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
+  <drawing r:id="rId60"/>
 </worksheet>
 </file>
 
